--- a/data/evaluation/evaluation_North_Spring_Cucumbers.xlsx
+++ b/data/evaluation/evaluation_North_Spring_Cucumbers.xlsx
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1893.947461356216</v>
+        <v>1889.156003538496</v>
       </c>
       <c r="C4" t="n">
-        <v>8203054.981499145</v>
+        <v>8223437.990167338</v>
       </c>
       <c r="D4" t="n">
-        <v>2864.097585889689</v>
+        <v>2867.653743074177</v>
       </c>
       <c r="E4" t="n">
-        <v>0.08617721062878536</v>
+        <v>0.08390653733951015</v>
       </c>
     </row>
     <row r="5">
